--- a/medicine/Enfance/Jean-Claude_Deret/Jean-Claude_Deret.xlsx
+++ b/medicine/Enfance/Jean-Claude_Deret/Jean-Claude_Deret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Deret, né Claude Breitman le 11 juillet 1921 à Paris et mort le 12 décembre 2016 dans la même ville, est un scénariste, dramaturge, acteur et écrivain français.
 </t>
@@ -513,20 +525,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parcours
-Fils de médecin, Jean-Claude Breitman fait ses études au lycée Louis-le-Grand à Paris. Il commence ensuite des études de médecine, puis opte pour le théâtre et s'inscrit au cours de théâtre Fernand Bellan puis René Simon. Il prend alors comme pseudonyme le nom de sa mère, Deret.
-En 1944, Jean-Claude Deret est engagé volontaire à la 2e division blindée et participe à la campagne d'Alsace comme infirmier d'ambulance. En 1945, il va accueillir, à l'hôtel Lutetia, son père, Lucien Breitman[1], de retour du camp de Falkensee.
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de médecin, Jean-Claude Breitman fait ses études au lycée Louis-le-Grand à Paris. Il commence ensuite des études de médecine, puis opte pour le théâtre et s'inscrit au cours de théâtre Fernand Bellan puis René Simon. Il prend alors comme pseudonyme le nom de sa mère, Deret.
+En 1944, Jean-Claude Deret est engagé volontaire à la 2e division blindée et participe à la campagne d'Alsace comme infirmier d'ambulance. En 1945, il va accueillir, à l'hôtel Lutetia, son père, Lucien Breitman, de retour du camp de Falkensee.
 Son engagement terminé, Jean-Claude Deret revient au théâtre et au cabaret. Il joue une pièce de Georges Courteline au théâtre de Poche Montparnasse lorsqu'Agnès Capri vient le chercher pour participer à son nouveau spectacle Laisse Parler Jacob en février 1946. Après son passage au Théâtre Agnès Capri, il monte un numéro de clochards avec Maryse Paillet qu'il interprète dans les cabarets. Puis, il présente À Paris, un spectacle de sketchs inspiré des chansons de Francis Lemarque. Il crée puis dirige successivement trois caves à Saint-Germain-des-Prés (La Rose rouge, Le Caveau de la Huchette, Les Trois Mailletz).
 À partir des années 1950, Jean-Claude Deret émigre au Canada et passe neuf ans à Montréal, partageant ses activités entre la télévision, le théâtre et le cabaret. Il devient un acteur important de Radio Canada. Il reçoit une récompense pour son interprétation de Aaron, histoire d'un vieux juif qui meurt de chagrin quand son fils change de nom.
-De retour en France en 1960, Jean-Claude Deret conçoit et écrit les 52 épisodes de Thierry la Fronde. Le feuilleton sera diffusé dans plus de trente pays. Il y interprète le rôle de Messire Florent. Il écrit également le scénario d'une bande dessinée : "Le fils de Thierry la Fronde"[2].
+De retour en France en 1960, Jean-Claude Deret conçoit et écrit les 52 épisodes de Thierry la Fronde. Le feuilleton sera diffusé dans plus de trente pays. Il y interprète le rôle de Messire Florent. Il écrit également le scénario d'une bande dessinée : "Le fils de Thierry la Fronde".
 Il partage ensuite ses activités entre ses rôles au théâtre et à la télévision, l'écriture de scénarios, de pièces de théâtre, de romans pour enfants et la chanson (auteur-compositeur-interprète).
 Le Théâtre du Funambule (Paris 18e) a produit et créé sa pièce Samuel dans l'île, jouée pour plus de 100 représentations entre décembre 2005 et avril 2006. Cette production a été nommée aux Molières 2006 dans la catégorie Grand Prix spécial du Jury.
 Jean-Claude Deret a composé (paroles et musique) de nombreuses chansons. En 2013, sa fille Zabou Breitman imagine un spectacle autour de celles-ci, le Cabaret Deret. De nombreux artistes viennent interpréter ses chansons.
-Il a animé et dirigé pendant plus de quarante ans le Théâtre du Cercle de Saint-Gervais-la-Forêt[3]. Son nom est donné à la salle polyvalente du village le 11 juillet 2011.
-Mort à l'âge de 95 ans le 12 décembre 2016 à Paris[4], il est incinéré le 17 décembre au crématorium du cimetière du Père-Lachaise situé dans la même ville[5].
-Famille
-Jean-Claude Deret est le père de trois enfants, Barbara Breitman, fille de Jane Dunn, Isabelle Breitman (connue sous le nom de Zabou puis Zabou Breitman), fille de l'actrice Céline Léger (Isabelle de Thierry la Fronde) et Arthur Breitman, cofondateur de Tezos, fils de Dominique Meunier.
-Jean-Claude Deret a vécu près de 40 ans à Montrouge, de 1977 à sa mort en 2016.
+Il a animé et dirigé pendant plus de quarante ans le Théâtre du Cercle de Saint-Gervais-la-Forêt. Son nom est donné à la salle polyvalente du village le 11 juillet 2011.
+Mort à l'âge de 95 ans le 12 décembre 2016 à Paris, il est incinéré le 17 décembre au crématorium du cimetière du Père-Lachaise situé dans la même ville.
 </t>
         </is>
       </c>
@@ -552,12 +566,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude Deret est le père de trois enfants, Barbara Breitman, fille de Jane Dunn, Isabelle Breitman (connue sous le nom de Zabou puis Zabou Breitman), fille de l'actrice Céline Léger (Isabelle de Thierry la Fronde) et Arthur Breitman, cofondateur de Tezos, fils de Dominique Meunier.
+Jean-Claude Deret a vécu près de 40 ans à Montrouge, de 1977 à sa mort en 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acteur au cinéma
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteur au cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1949 : Du pied, court-métrage de Pierre Courau
 1950 : Bistro, court-métrage de Marco de Gastyne
 1991 : La Montre, la croix et la manière, film de Ben Lewin : le grand-père
@@ -574,7 +632,43 @@
 2010 : Demain, ce sera bien, court-métrage de Claude Saussereau
 2013 : Les Jeux des nuages et de la pluie, film de Benjamin de Lajarte
 2016 : L'Air d'un oubli, court-métrage d'Olivier Fély-Biolet : Maxence
-Acteur à la télévision
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteur à la télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1950 : Agence Nostradamus, série TV de Claude Barma
 1953 : La Famille Plouffe, série TV de Guy Beaulne, Jean Dumas et Jean-Paul Fugère : Consul de France
 1954 : Le Ciel des oiseaux d'A. Rivemale, téléfilm pour Radio Canada
@@ -602,11 +696,81 @@
 2002 : La Grande Brasserie, téléfilm de Dominique Baron : Victor
 2003 : Et toc!, téléfilm de Samuel Tasinaje et Martin Valente
 2011 : Un, deux, trois, voleurs, téléfilm de Gilles Mimouni : Emilio, le grand-père de Luis
-Scénariste
-1950 : Bistro de Marco de Gastyne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1950 : Bistro de Marco de Gastyne
 1980 : Adaptation pour la télévision canadienne du roman de Jacques Folch-Ribas Une Aurore boréale
-2001 : Se souvenir des belles choses de Zabou Breitman
-Auteur de séries télévisées
+2001 : Se souvenir des belles choses de Zabou Breitman</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auteur de séries télévisées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1963 : Thierry la Fronde, série télévisée de 52 épisodes, auteur, scénariste, dialoguiste
 1979 : Les Aventures électriques de Zeltron, 10 épisodes de vulgarisation scientifique sur l'Électricité à destination de la jeunesse
 1980 : Winnetou le mescalero (de), série télévisée de 7 épisodes d'après les romans de Karl May. Scénario, dialogues, coadaptation avec le réalisateur Marcel Camus - Rôle de Charbonneau
@@ -616,33 +780,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comédien
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comédien</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1946 : La Cinquantaine de Georges Courteline au Théâtre de poche Montparnasse
 1946 : Laisse parler Jacob au Théâtre Agnès Capri (Gaîté-Montparnasse)
 1948 : Les Suites d'un premier lit d'Eugène Labiche au cabaret L'Amiral (troupe des Loricata)
@@ -667,7 +837,43 @@
 2013 : 2 galas de chansons au Théâtre du Chêne noir dans le cadre du festival d'Avignon
 2014 : galas de chansons au Théâtre de Poche-Montparnasse
 2015 : galas de chansons « Le cabaret Deret » au Théâtre de l'Atelier, au Théâtre du Rond-Point, au Théâtre de Châtillon
-Auteur de pièces de théâtre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auteur de pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1981 : La Mort en ce palais
 1983 : Aristofemmes
 1988 : Gentil coquelicot, Mesdames
@@ -686,34 +892,43 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur de romans pour la jeunesse
-Série Thierry la Fronde
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auteur de romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Thierry la Fronde</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1964 : Une aventure de Thierry la Fronde — Éditions Hachette
 1964 : Thierry la Fronde : Isabelle aux sabots — Éditions des Deux coqs d'or
 1965 : Thierry la Fronde : La Chanson d’Isabelle — Éditions des Deux coqs d'or
@@ -721,7 +936,47 @@
 1966 : Les Premières Armes de Thierry la Fronde — Hachette, collection Idéal-Bibliothèque no 329
 1966 : Thierry la Fronde : Les Chevaliers de Sologne — Hachette, coll. Idéal-Bibliothèque no 305
 1966 : : Thierry la Fronde : Le Drame de Rouvres — Hachette
-Série Gilles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auteur de romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Gilles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1975 : Gilles aux Champs-Élysées — coll. Bibliothèque rose
 1975 : Gilles sur les Bateaux Mouches — coll. Bibliothèque rose
 1976 : Gilles prends la Bastille — coll. Bibliothèque rose
@@ -729,10 +984,84 @@
 1976 : Gilles à la Tour Eiffel — coll. Bibliothèque rose
 1976 : Gilles et les mystères de l'Observatoire — coll. Bibliothèque rose
 1976 : Gilles chasse aux Tuileries — coll. Bibliothèque rose
-Romans hors série
-1975 : Anémone et les papillons — coll. Bibliothèque rose
-1979 : Album Winnetou — Flammarion
-Traducteur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Auteur de romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans hors série</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1975 : Anémone et les papillons — coll. Bibliothèque rose
+1979 : Album Winnetou — Flammarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Traducteur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1974 : La guerre du froid, Robert Silverberg — Hachette, collection : Bibliothèque rouge
 1974 : Zorro contre le gouverneur, Walt Disney — collection Idéal-Bibliothèque
 1975 : L'Épée de Zorro (traduction), Walt Disney — collection Idéal-Bibliothèque
@@ -744,34 +1073,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chansons - Compositeur-interprète
-Compositeur (paroles et musique) d'une cinquantaine de chansons.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Chansons - Compositeur-interprète</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compositeur (paroles et musique) d'une cinquantaine de chansons.
 À la claire fontaine
 Apocalypse
 Ballades en forêt
@@ -819,33 +1153,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Deret</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'ordre des Arts et des Lettres Il est promu au grade d’officier le 13 septembre 2016[6]. Il était chevalier de l'ordre depuis 2006.</t>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre des Arts et des Lettres Il est promu au grade d’officier le 13 septembre 2016. Il était chevalier de l'ordre depuis 2006.</t>
         </is>
       </c>
     </row>
